--- a/Data/Pages/dlgAutomobileInsurance_pagSendQuote.xlsx
+++ b/Data/Pages/dlgAutomobileInsurance_pagSendQuote.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052FEC09-69FE-423F-B24C-658BAFBD5EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A945D41C-3624-4FA0-88C0-66D95D90D619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1428" yWindow="744" windowWidth="34500" windowHeight="15768" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="2688" yWindow="612" windowWidth="35280" windowHeight="15732" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Check defaults</t>
   </si>
@@ -45,15 +45,6 @@
     <t>txtUsername</t>
   </si>
   <si>
-    <t>txtPassword</t>
-  </si>
-  <si>
-    <t>txtConfirmPassword</t>
-  </si>
-  <si>
-    <t>tarComments</t>
-  </si>
-  <si>
     <t>butMainPage</t>
   </si>
   <si>
@@ -76,6 +67,78 @@
   </si>
   <si>
     <t>VIA_Pixel9Pro_API35</t>
+  </si>
+  <si>
+    <t>102_VehicleInsuranceAutomobile_001_SmokeTest_FillPage</t>
+  </si>
+  <si>
+    <t>info@matthias-schmotz.de</t>
+  </si>
+  <si>
+    <t>Matthias1968</t>
+  </si>
+  <si>
+    <t>EinPasswort123</t>
+  </si>
+  <si>
+    <t>Zeile 1&lt;||&gt;Zeile 2</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Button Main Page</t>
+  </si>
+  <si>
+    <t>01773787507</t>
+  </si>
+  <si>
+    <t>mltComments</t>
+  </si>
+  <si>
+    <t>pwdPassword</t>
+  </si>
+  <si>
+    <t>pwdConfirmPassword</t>
+  </si>
+  <si>
+    <t>id=email</t>
+  </si>
+  <si>
+    <t>id=phone</t>
+  </si>
+  <si>
+    <t>id=username</t>
+  </si>
+  <si>
+    <t>id=password</t>
+  </si>
+  <si>
+    <t>id=confirmpassword</t>
+  </si>
+  <si>
+    <t>id=Comments</t>
+  </si>
+  <si>
+    <t>id=prevselectpriceoption</t>
+  </si>
+  <si>
+    <t>id=sendemail</t>
+  </si>
+  <si>
+    <t>id=backmain</t>
+  </si>
+  <si>
+    <t>id=newautomobileinsurance</t>
+  </si>
+  <si>
+    <t>id=newtruckinsurance</t>
+  </si>
+  <si>
+    <t>id=newmotorcycleinsurance</t>
+  </si>
+  <si>
+    <t>id=newcamperinsurance</t>
   </si>
 </sst>
 </file>
@@ -125,10 +188,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -152,14 +216,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>192945</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>48318</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314865</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>154998</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -182,7 +246,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="845820"/>
+          <a:off x="0" y="1318260"/>
           <a:ext cx="10479945" cy="7614978"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -492,35 +556,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82737E07-8287-4E6B-9130-6C87B574EFB8}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.21875" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.109375" customWidth="1"/>
-    <col min="6" max="7" width="20.5546875" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" customWidth="1"/>
-    <col min="11" max="11" width="26" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="20.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" style="1" customWidth="1"/>
+    <col min="11" max="11" width="26" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -537,43 +642,78 @@
         <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Data/Pages/dlgAutomobileInsurance_pagSendQuote.xlsx
+++ b/Data/Pages/dlgAutomobileInsurance_pagSendQuote.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7177BC03-8A80-4235-AF8D-F5164EFCA1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C85A88-1756-4389-BBDB-4E92D16E8BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11292" yWindow="2868" windowWidth="22560" windowHeight="12480" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="3720" yWindow="780" windowWidth="36948" windowHeight="15672" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
   <si>
     <t>Check defaults</t>
   </si>
@@ -99,46 +99,103 @@
     <t>pwdConfirmPassword</t>
   </si>
   <si>
-    <t>id=email</t>
-  </si>
-  <si>
-    <t>id=phone</t>
-  </si>
-  <si>
-    <t>id=username</t>
-  </si>
-  <si>
-    <t>id=password</t>
-  </si>
-  <si>
-    <t>id=confirmpassword</t>
-  </si>
-  <si>
-    <t>id=Comments</t>
-  </si>
-  <si>
-    <t>id=prevselectpriceoption</t>
-  </si>
-  <si>
-    <t>id=sendemail</t>
-  </si>
-  <si>
-    <t>id=backmain</t>
-  </si>
-  <si>
-    <t>id=newautomobileinsurance</t>
-  </si>
-  <si>
-    <t>id=newtruckinsurance</t>
-  </si>
-  <si>
-    <t>id=newmotorcycleinsurance</t>
-  </si>
-  <si>
-    <t>id=newcamperinsurance</t>
-  </si>
-  <si>
     <t>102_AutomobileInsurance_001_SmokeTest_FillPage</t>
+  </si>
+  <si>
+    <t>//*[@id='email']</t>
+  </si>
+  <si>
+    <t>//*[@id='phone']</t>
+  </si>
+  <si>
+    <t>//*[@id='username']</t>
+  </si>
+  <si>
+    <t>//*[@id='password']</t>
+  </si>
+  <si>
+    <t>//*[@id='confirmpassword']</t>
+  </si>
+  <si>
+    <t>//*[@id='Comments']</t>
+  </si>
+  <si>
+    <t>//*[@id='prevselectpriceoption']</t>
+  </si>
+  <si>
+    <t>//*[@id='sendemail']</t>
+  </si>
+  <si>
+    <t>//*[@id='backmain']</t>
+  </si>
+  <si>
+    <t>//*[@id='newautomobileinsurance']</t>
+  </si>
+  <si>
+    <t>//*[@id='newtruckinsurance']</t>
+  </si>
+  <si>
+    <t>//*[@id='newmotorcycleinsurance']</t>
+  </si>
+  <si>
+    <t>//*[@id='newcamperinsurance']</t>
+  </si>
+  <si>
+    <t>&lt;MissingMandatoryField&gt;</t>
+  </si>
+  <si>
+    <t>&lt;HINT This field is mandatory&gt;</t>
+  </si>
+  <si>
+    <t>&lt;HINT Must be at least a valid email format&gt;</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&lt;HINT Must be only digits&gt;</t>
+  </si>
+  <si>
+    <t>ö</t>
+  </si>
+  <si>
+    <t>102_AutomobileInsurance_006_SendQuote_002_EnterValuesInWrongFormat</t>
+  </si>
+  <si>
+    <t>&lt;HINT Must be a number between 8 and 15 digits&gt;</t>
+  </si>
+  <si>
+    <t>102_AutomobileInsurance_006_SendQuote_002_EnterValuesInWrongFormat Part 2</t>
+  </si>
+  <si>
+    <t>&lt;HINT Must be between 4 and 32 characters long and start with a letter. You may use letters, numbers, underscores, and one dot&gt;</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>&lt;HINT Must be at least 6 characters long, and contain at least one number, one uppercase and one lowercase letter&gt;</t>
+  </si>
+  <si>
+    <t>&lt;HINT Must have the same value as the Password field&gt;</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>Select Quote Page check error hint formatting Part 2</t>
+  </si>
+  <si>
+    <t>Send Quote page check for open mandatory field</t>
+  </si>
+  <si>
+    <t>Send Quote Page check for hints regarding mandatory fields</t>
+  </si>
+  <si>
+    <t>Send Quote Page check error hint formatting</t>
+  </si>
+  <si>
+    <t>Send Quote Page check error hint formatting Part 2</t>
   </si>
 </sst>
 </file>
@@ -162,7 +219,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,6 +229,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -188,10 +251,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -215,14 +279,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>314865</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>154998</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>154845</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>132138</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -245,7 +309,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1318260"/>
+          <a:off x="0" y="2758440"/>
           <a:ext cx="10479945" cy="7614978"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -555,24 +619,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82737E07-8287-4E6B-9130-6C87B574EFB8}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.109375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="20.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="70.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="50.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="19.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17" style="1" customWidth="1"/>
-    <col min="11" max="11" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="26.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="11.5546875" style="1"/>
@@ -583,43 +649,43 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -678,9 +744,9 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -708,6 +774,101 @@
       </c>
       <c r="J6" s="1" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
